--- a/data/davis matches/davis_2019.xlsx
+++ b/data/davis matches/davis_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,7 +1091,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1118,19 +1118,15 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
         <v>7</v>
       </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1146,26 +1142,30 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Guido Pella</t>
+          <t>John Millman</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>17 May 1990</t>
+          <t>14 Jun 1989</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1080=</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>540=</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1205,17 +1205,13 @@
       <c r="G9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1231,26 +1227,30 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Pablo Carreno Busta</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12 Jul 1991</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr"/>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>1387=</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -1261,7 +1261,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1285,12 +1285,14 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1310,26 +1312,30 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Diego Schwartzman</t>
+          <t>Alex De Minaur</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>16 Aug 1992</t>
+          <t>17 Feb 1999</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1340,7 +1346,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1367,9 +1373,11 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1389,30 +1397,26 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1423,7 +1427,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1450,11 +1454,9 @@
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1474,37 +1476,45 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Maximo Gonzalez</t>
+          <t>John Peers</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Leonardo Mayer</t>
+          <t>Jordan Thompson</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>ARGENTINA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>20 Jul 1983</t>
+          <t>25 Jul 1988</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>58</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>15 May 1987</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
+          <t>20 Apr 1994</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="AA12" t="n">
         <v>2019</v>
       </c>
@@ -1512,7 +1522,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
+          <t xml:space="preserve"> 21 Nov - 21 Nov 2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1539,11 +1549,9 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1563,45 +1571,45 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Marcel Granollers</t>
+          <t>Vasek Pospisil</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12 Apr 1986</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1=</t>
+          <t>1387=</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>2019</v>
       </c>
@@ -1609,7 +1617,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1629,14 +1637,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1658,28 +1666,28 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Andrey Rublev</t>
+          <t>Kyle Edmund</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20 Oct 1997</t>
+          <t>08 Jan 1995</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>461</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1046=</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
@@ -1692,7 +1700,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1712,14 +1720,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1741,30 +1749,22 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
+          <t>Philipp Kohlschreiber</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
+          <t>16 Oct 1983</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1775,7 +1775,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1795,23 +1795,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>7</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -1826,28 +1830,28 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>GREAT BRITAIN</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>21 May 1996</t>
+          <t>23 May 1990</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>186</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>865</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1860,7 +1864,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1880,23 +1884,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -1911,26 +1919,30 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
+          <t>Jan-Lennard Struff</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>25 Apr 1990</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1941,7 +1953,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1961,25 +1973,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
@@ -1989,54 +2003,34 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Karen Khachanov</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Andrey Rublev</t>
-        </is>
-      </c>
+          <t>Guido Pella</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>RUSSIA</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>21 May 1996</t>
+          <t>17 May 1990</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>20 Oct 1997</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
+          <t>1080=</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>2019</v>
       </c>
@@ -2044,7 +2038,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2064,25 +2058,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="K19" t="n">
         <v>7</v>
       </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
@@ -2092,49 +2088,33 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Vasek Pospisil</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
+          <t>Pablo Carreno Busta</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23 Jun 1990</t>
+          <t>12 Jul 1991</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>609</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1387=</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>15 Apr 1999</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>2019</v>
@@ -2143,7 +2123,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2163,22 +2143,20 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -2189,35 +2167,31 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Kyle Edmund</t>
+          <t>Diego Schwartzman</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>08 Jan 1995</t>
+          <t>16 Aug 1992</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>1046=</t>
-        </is>
-      </c>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -2228,7 +2202,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2248,11 +2222,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -2261,9 +2235,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -2274,12 +2246,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
+          <t>Rafael Nadal</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -2290,11 +2262,19 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2305,7 +2285,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2325,16 +2305,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2349,36 +2331,40 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Maximo Gonzalez</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Leonardo Mayer</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>ARGENTINA</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23 May 1990</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
+          <t>20 Jul 1983</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>865</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr"/>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>15 May 1987</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
@@ -2388,7 +2374,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+          <t xml:space="preserve"> 22 Nov - 22 Nov 2019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2408,16 +2394,18 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FINALS  SEMI-FINAL</t>
+          <t>FINALS  QUARTER-FINAL</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2432,15 +2420,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>Marcel Granollers</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
           <t>Rafael Nadal</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>SPAIN</t>
@@ -2448,22 +2440,30 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
+          <t>12 Apr 1986</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>1=</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
           <t>03 Jun 1986</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>860</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>2019</v>
       </c>
@@ -2503,12 +2503,8 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2519,46 +2515,38 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Jamie Murray</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Neal Skupski</t>
-        </is>
-      </c>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>GREAT BRITAIN</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>13 Feb 1986</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
+          <t>20 Oct 1997</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>01 Dec 1989</t>
-        </is>
-      </c>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
+      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>2019</v>
       </c>
@@ -2590,20 +2578,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>10</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2614,46 +2598,38 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>MATCH 3</t>
+          <t>MATCH 1</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Feliciano Lopez</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20 Sep 1981</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>03 Jun 1986</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>860</t>
-        </is>
-      </c>
+          <t>23 Jun 1990</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1387=</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>2019</v>
       </c>
@@ -2661,7 +2637,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2681,21 +2657,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -2707,33 +2683,33 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Felix Auger-Aliassime</t>
+          <t>Karen Khachanov</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>08 Aug 2000</t>
+          <t>21 May 1996</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>95</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -2746,7 +2722,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2766,21 +2742,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -2792,28 +2768,28 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>MATCH 1</t>
+          <t>MATCH 2</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Roberto Bautista Agut</t>
+          <t>Denis Shapovalov</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>14 Apr 1988</t>
+          <t>15 Apr 1999</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>105</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -2827,7 +2803,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2847,7 +2823,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2856,14 +2832,16 @@
       <c r="G28" t="n">
         <v>6</v>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>7</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
@@ -2873,34 +2851,54 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Denis Shapovalov</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Karen Khachanov</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Andrey Rublev</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>CANADA</t>
+          <t>RUSSIA</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>15 Apr 1999</t>
+          <t>21 May 1996</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>20 Oct 1997</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
       <c r="AA28" t="n">
         <v>2019</v>
       </c>
@@ -2908,7 +2906,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2928,23 +2926,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FINALS  FINAL</t>
+          <t>FINALS  SEMI-FINAL</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>6</v>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>9</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>7</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
@@ -2954,39 +2954,901 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>MATCH 2</t>
+          <t>MATCH 3</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Rafael Nadal</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Vasek Pospisil</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>CANADA</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03 Jun 1986</t>
+          <t>23 Jun 1990</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>609</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>860</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+          <t>1387=</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>15 Apr 1999</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Kyle Edmund</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>GREAT BRITAIN</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>08 Jan 1995</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>1046=</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Daniel Evans</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>GREAT BRITAIN</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>23 May 1990</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Jamie Murray</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Neal Skupski</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>GREAT BRITAIN</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>13 Feb 1986</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>01 Dec 1989</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AA34" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 Nov - 23 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>FINALS  SEMI-FINAL</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>MATCH 3</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Feliciano Lopez</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20 Sep 1981</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="AA35" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Felix Auger-Aliassime</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>08 Aug 2000</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>MATCH 1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Roberto Bautista Agut</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>14 Apr 1988</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>7</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Denis Shapovalov</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>15 Apr 1999</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Nov - 24 Nov 2019</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caja Magica, Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hard - GreenSet Grand Prix Cup, Indoor</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunlop ATP</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FINALS  FINAL</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>9</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>PLAYED &amp; COMPLETED</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>MATCH 2</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Rafael Nadal</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>03 Jun 1986</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="n">
         <v>2019</v>
       </c>
     </row>

--- a/data/davis matches/davis_2019.xlsx
+++ b/data/davis matches/davis_2019.xlsx
@@ -638,7 +638,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>631</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -879,7 +879,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>951</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>540=</t>
+          <t>536=</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
@@ -1243,12 +1243,12 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>342</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>54</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1935,12 +1935,12 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1080=</t>
+          <t>1079=</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>213</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>244</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>863</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>863</t>
         </is>
       </c>
       <c r="AA23" t="n">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2979,12 +2979,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>612</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>1387=</t>
+          <t>1385=</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>452</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>184</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>865</t>
+          <t>868</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -3315,12 +3315,12 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>863</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -3407,7 +3407,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>863</t>
         </is>
       </c>
       <c r="AA35" t="n">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>154</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>863</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
